--- a/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
+++ b/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
@@ -14,22 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Birth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,13 +46,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,8 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,24 +390,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="50" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
+++ b/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tom and Jerry</t>
   </si>
@@ -22,10 +22,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Generations</t>
+    <t>Life</t>
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Generation</t>
   </si>
   <si>
     <t>Age</t>
@@ -390,13 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="50" customHeight="1">
@@ -411,31 +416,39 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
+++ b/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tom and Jerry</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Generation</t>
+  </si>
+  <si>
+    <t>Heart</t>
   </si>
   <si>
     <t>Age</t>
@@ -393,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,18 +404,19 @@
   <cols>
     <col min="1" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50" customHeight="1">
+    <row r="1" spans="1:5" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -420,35 +424,41 @@
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
+    <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
+++ b/packages/wasm/src/snapshots/imexport_wasm__tests__tests__create_template_should_be_correct.snap.xlsx
@@ -1,74 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="25600" windowHeight="11610"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FireRed &amp; LeafGreen Pokédex" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Generation</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Birth</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+  <si>
+    <t>FireRed &amp; LeafGreen Pokédex</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>Base Stats</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Moves</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Sp. Atk</t>
+  </si>
+  <si>
+    <t>Sp. Def</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>LV.</t>
+  </si>
+  <si>
+    <t>Move.</t>
+  </si>
+  <si>
+    <t>Type.</t>
+  </si>
+  <si>
+    <t>Cat.</t>
+  </si>
+  <si>
+    <t>Power.</t>
+  </si>
+  <si>
+    <t>Acc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF868686"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,8 +326,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,24 +521,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,24 +1118,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="41" width="10.7090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50" customHeight="1">
+    <row r="1" ht="50" customHeight="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,51 +1143,298 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" customHeight="1" spans="1:41">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
+    <row r="3" customHeight="1" spans="1:41">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" customHeight="1" spans="1:41">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="24">
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="P2:AO2"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AJ3"/>
+    <mergeCell ref="AK3:AO3"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>